--- a/global_data/day_data/603057.xlsx
+++ b/global_data/day_data/603057.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I626"/>
+  <dimension ref="A1:I628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18562,6 +18564,64 @@
         <v>0.02705771251694688</v>
       </c>
     </row>
+    <row r="627" spans="1:9">
+      <c r="A627" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B627">
+        <v>23.2</v>
+      </c>
+      <c r="C627">
+        <v>23.2</v>
+      </c>
+      <c r="D627">
+        <v>22.4</v>
+      </c>
+      <c r="E627">
+        <v>22.4</v>
+      </c>
+      <c r="F627">
+        <v>2143120</v>
+      </c>
+      <c r="G627">
+        <v>48508478</v>
+      </c>
+      <c r="H627">
+        <v>68061925</v>
+      </c>
+      <c r="I627">
+        <v>0.03148779585649392</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9">
+      <c r="A628" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B628">
+        <v>22.42</v>
+      </c>
+      <c r="C628">
+        <v>22.87</v>
+      </c>
+      <c r="D628">
+        <v>22.36</v>
+      </c>
+      <c r="E628">
+        <v>22.37</v>
+      </c>
+      <c r="F628">
+        <v>3132182</v>
+      </c>
+      <c r="G628">
+        <v>70798964</v>
+      </c>
+      <c r="H628">
+        <v>68061925</v>
+      </c>
+      <c r="I628">
+        <v>0.04601959171739559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
